--- a/downloads/交易日誌範本-2019.xlsx
+++ b/downloads/交易日誌範本-2019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Google Drive\@Freelancing\股票投資\交易日誌\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Books\stock-trading-notes-support\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6280CFCA-3B50-44DD-A74A-5B1A9CBBBB70}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F3C194-1FFA-4395-B5BE-BE7E8C9CF843}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="859" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="48">
   <si>
     <t>名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,12 +897,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -940,6 +934,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,16 +1194,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1266,10 +1257,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1287,7 +1278,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
@@ -1296,7 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
@@ -1305,9 +1296,6 @@
     <xf numFmtId="185" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1332,8 +1320,107 @@
     <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1344,117 +1431,30 @@
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="92">
+  <dxfs count="97">
     <dxf>
       <font>
         <b/>
@@ -1809,80 +1809,6 @@
       </font>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -1895,258 +1821,23 @@
         <extend val="0"/>
         <color indexed="17"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2164,10 +1855,429 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF66FF66"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF08A42D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <bgColor auto="1"/>
@@ -2195,99 +2305,6 @@
           <bgColor rgb="FF66FF66"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2686,141 +2703,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="19">
+      <c r="B3" s="16">
         <v>8.5499999999999997E-4</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
     </row>
     <row r="5" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -2840,7 +2857,7 @@
       <pane xSplit="22" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2868,396 +2885,396 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="75" t="s">
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="60" t="s">
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="61"/>
-      <c r="V1" s="61"/>
-      <c r="W1" s="61"/>
+      <c r="U1" s="75"/>
+      <c r="V1" s="75"/>
+      <c r="W1" s="75"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="7" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="26" t="s">
+      <c r="U2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68">
+      <c r="A3" s="58">
         <v>1</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="66">
+      <c r="D3" s="48">
         <f>IF(C3="新光",手續費率_新光,手續費率_元大)</f>
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="E3" s="77">
+      <c r="E3" s="50">
         <v>1</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="28" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11">
+      <c r="H3" s="7"/>
+      <c r="I3" s="8">
         <f>E3*1000*H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="17">
         <f>IF(I3&lt;=0, 0, IF(ROUNDUP(I3*D3, 0)&lt;20,20,ROUNDUP(I3*D3, 0)))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="17">
         <f>IF(G3="空", IF(C3="新光", ROUND(I3*借券費率_新光,0), ROUND(I3*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="7">
         <v>65.400000000000006</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="42">
+      <c r="M3" s="7"/>
+      <c r="N3" s="38">
         <f xml:space="preserve"> IF(AND(H3&gt;0, L3&gt;0),  (H3-L3) / (M3-H3), 0)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="9"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="11">
+      <c r="O3" s="6"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8">
         <f>E3*1000*P3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R3" s="18">
         <f>IF(Q3&lt;=0, 0, IF(ROUNDUP(Q3*D3,0)&lt;20,20,ROUNDUP(Q3*D3, 0)))</f>
         <v>0</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="17">
         <f ca="1">IF(AND(G3="多", VALUE(W3)=1),IF(C3="新光", ROUND(I3*借券費率_新光,0), ROUND(I3*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="12">
         <f>IF(G3="多", IF(Q3&lt;&gt;0,INT(Q3*Tax), 0), IF(I3&lt;&gt;0,INT(I3*Tax),0))</f>
         <v>0</v>
       </c>
-      <c r="U3" s="18">
+      <c r="U3" s="15">
         <f>IF(Q3&lt;&gt;0, IF(G3="多", Q3-I3-J3-R3-S3-T3, I3-Q3-J3-K3-R3-T3), 0)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="13" t="str">
+      <c r="V3" s="10" t="str">
         <f>IF(AND(Q3&lt;&gt;0, H3 &lt;&gt; 0), IF(G3="多", U3/I3, U3/Q3), "")</f>
         <v/>
       </c>
-      <c r="W3" s="14">
+      <c r="W3" s="11">
         <f ca="1">IF(O3&gt;0,O3-F3+1,IF(F3&gt;0,TODAY()-F3+1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="69"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="58"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="58"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="82"/>
+      <c r="V4" s="82"/>
+      <c r="W4" s="82"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68">
+      <c r="A5" s="58">
         <v>2</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="65" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="66">
+      <c r="D5" s="48">
         <f>IF(C5="新光",手續費率_新光,手續費率_元大)</f>
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="50">
         <v>1</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="28" t="s">
+      <c r="F5" s="6"/>
+      <c r="G5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11">
+      <c r="H5" s="7"/>
+      <c r="I5" s="8">
         <f>E5*1000*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="17">
         <f>IF(I5&lt;=0, 0, IF(ROUNDUP(I5*D5, 0)&lt;20,20,ROUNDUP(I5*D5, 0)))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="17">
         <f>IF(G5="空", IF(C5="新光", ROUND(I5*借券費率_新光,0), ROUND(I5*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="L5" s="10">
+      <c r="L5" s="7">
         <v>65.400000000000006</v>
       </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="42">
+      <c r="M5" s="7"/>
+      <c r="N5" s="38">
         <f xml:space="preserve"> IF(AND(H5&gt;0, L5&gt;0),  (H5-L5) / (M5-H5), 0)</f>
         <v>0</v>
       </c>
-      <c r="O5" s="9"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="11">
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8">
         <f>E5*1000*P5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="18">
         <f>IF(Q5&lt;=0, 0, IF(ROUNDUP(Q5*D5,0)&lt;20,20,ROUNDUP(Q5*D5, 0)))</f>
         <v>0</v>
       </c>
-      <c r="S5" s="20">
+      <c r="S5" s="17">
         <f ca="1">IF(AND(G5="多", VALUE(W5)=1),IF(C5="新光", ROUND(I5*借券費率_新光,0), ROUND(I5*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="12">
         <f>IF(G5="多", IF(Q5&lt;&gt;0,INT(Q5*Tax), 0), IF(I5&lt;&gt;0,INT(I5*Tax),0))</f>
         <v>0</v>
       </c>
-      <c r="U5" s="18">
+      <c r="U5" s="15">
         <f>IF(Q5&lt;&gt;0, IF(G5="多", Q5-I5-J5-R5-S5-T5, I5-Q5-J5-K5-R5-T5), 0)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="13" t="str">
+      <c r="V5" s="10" t="str">
         <f>IF(AND(Q5&lt;&gt;0, H5 &lt;&gt; 0), IF(G5="多", U5/I5, U5/Q5), "")</f>
         <v/>
       </c>
-      <c r="W5" s="14">
+      <c r="W5" s="11">
         <f ca="1">IF(O5&gt;0,O5-F5+1,IF(F5&gt;0,TODAY()-F5+1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="69"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="69"/>
+      <c r="U6" s="82"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="68">
+      <c r="A7" s="58">
         <v>3</v>
       </c>
-      <c r="B7" s="70"/>
-      <c r="C7" s="65" t="s">
+      <c r="B7" s="60"/>
+      <c r="C7" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="48">
         <f>IF(C7="新光",手續費率_新光,手續費率_元大)</f>
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="50">
         <v>1</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="28" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11">
+      <c r="H7" s="7"/>
+      <c r="I7" s="8">
         <f>E7*1000*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="17">
         <f>IF(I7&lt;=0, 0, IF(ROUNDUP(I7*D7, 0)&lt;20,20,ROUNDUP(I7*D7, 0)))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="17">
         <f>IF(G7="空", IF(C7="新光", ROUND(I7*借券費率_新光,0), ROUND(I7*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="7">
         <v>65.400000000000006</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="42">
+      <c r="M7" s="7"/>
+      <c r="N7" s="38">
         <f xml:space="preserve"> IF(AND(H7&gt;0, L7&gt;0),  (H7-L7) / (M7-H7), 0)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="11">
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8">
         <f>E7*1000*P7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="21">
+      <c r="R7" s="18">
         <f>IF(Q7&lt;=0, 0, IF(ROUNDUP(Q7*D7,0)&lt;20,20,ROUNDUP(Q7*D7, 0)))</f>
         <v>0</v>
       </c>
-      <c r="S7" s="20">
+      <c r="S7" s="17">
         <f ca="1">IF(AND(G7="多", VALUE(W7)=1),IF(C7="新光", ROUND(I7*借券費率_新光,0), ROUND(I7*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="12">
         <f>IF(G7="多", IF(Q7&lt;&gt;0,INT(Q7*Tax), 0), IF(I7&lt;&gt;0,INT(I7*Tax),0))</f>
         <v>0</v>
       </c>
-      <c r="U7" s="18">
+      <c r="U7" s="15">
         <f>IF(Q7&lt;&gt;0, IF(G7="多", Q7-I7-J7-R7-S7-T7, I7-Q7-J7-K7-R7-T7), 0)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="13" t="str">
+      <c r="V7" s="10" t="str">
         <f>IF(AND(Q7&lt;&gt;0, H7 &lt;&gt; 0), IF(G7="多", U7/I7, U7/Q7), "")</f>
         <v/>
       </c>
-      <c r="W7" s="14">
+      <c r="W7" s="11">
         <f ca="1">IF(O7&gt;0,O7-F7+1,IF(F7&gt;0,TODAY()-F7+1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
-      <c r="M8" s="56"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="53"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="71"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="82"/>
+      <c r="V8" s="82"/>
+      <c r="W8" s="82"/>
     </row>
     <row r="9" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
@@ -3283,53 +3300,56 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:23" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="83">
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="84">
         <f>SUM(I3:I9)</f>
         <v>0</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="5">
+      <c r="I10" s="84"/>
+      <c r="J10" s="85">
         <f>SUM(J3:J9)</f>
         <v>0</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="85">
         <f>SUM(K3:K9)</f>
         <v>0</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="5">
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="85">
         <f>SUM(R3:R9)</f>
         <v>0</v>
       </c>
-      <c r="S10" s="5">
+      <c r="S10" s="85">
         <f ca="1">SUM(S3:S9)</f>
         <v>0</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="85">
         <f>SUM(T3:T9)</f>
         <v>0</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="85">
         <f>SUM(U3:U9)</f>
         <v>0</v>
       </c>
-      <c r="V10" s="40"/>
-      <c r="W10" s="41"/>
+      <c r="V10" s="86">
+        <f>U10-H10</f>
+        <v>0</v>
+      </c>
+      <c r="W10" s="37"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
@@ -3361,12 +3381,12 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="51" t="s">
+      <c r="F12" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="43">
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="39">
         <f xml:space="preserve"> MAX(I2:I8)</f>
         <v>0</v>
       </c>
@@ -3384,68 +3404,68 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:23" s="46" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="49" t="s">
+    <row r="13" spans="1:23" s="42" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="50">
+      <c r="C13" s="79">
         <v>163000</v>
       </c>
-      <c r="D13" s="50"/>
+      <c r="D13" s="79"/>
     </row>
-    <row r="14" spans="1:23" s="46" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="49" t="s">
+    <row r="14" spans="1:23" s="42" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="43"/>
+      <c r="B14" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
     </row>
-    <row r="15" spans="1:23" s="46" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
-      <c r="B15" s="49" t="s">
+    <row r="15" spans="1:23" s="42" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="52" t="str">
+      <c r="C15" s="81" t="str">
         <f>IF(C14&gt;0,(C14-C13)/C13,"")</f>
         <v/>
       </c>
-      <c r="D15" s="52"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="F17" s="31" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="F17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="29" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="F18" s="29" t="s">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="F18" s="26" t="s">
         <v>31</v>
       </c>
       <c r="N18" t="s">
@@ -3453,87 +3473,87 @@
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="F19" s="29" t="s">
+      <c r="A19" s="40"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="F19" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="N20" s="33" t="s">
+      <c r="A20" s="40"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="N20" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="84" t="s">
+      <c r="O20" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="84"/>
-      <c r="Q20" s="34">
+      <c r="P20" s="52"/>
+      <c r="Q20" s="31">
         <v>33.200000000000003</v>
       </c>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="85" t="s">
+      <c r="A21" s="40"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="37">
+      <c r="P21" s="53"/>
+      <c r="Q21" s="34">
         <v>32.700000000000003</v>
       </c>
-      <c r="R21" s="36"/>
-      <c r="S21" s="36"/>
-      <c r="T21" s="36"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="85" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="37">
+      <c r="P22" s="53"/>
+      <c r="Q22" s="34">
         <v>35</v>
       </c>
-      <c r="R22" s="36"/>
-      <c r="S22" s="36"/>
-      <c r="T22" s="36"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="86" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="39">
+      <c r="P23" s="54"/>
+      <c r="Q23" s="36">
         <f>IF(AND(Q20&gt;0, Q21 &gt; 0, Q22 &gt; 0),(Q20-Q21) / (Q22-Q20), 0)</f>
         <v>0.27777777777777823</v>
       </c>
-      <c r="R23" s="87" t="str">
+      <c r="R23" s="55" t="str">
         <f xml:space="preserve"> IF(Q23 = 0, "在上方輸入試算價格", IF(Q23 &gt; 0.33,"不可建立部位!", "可以建立部位"))</f>
         <v>可以建立部位</v>
       </c>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
@@ -3753,24 +3773,19 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T6:W6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E1:E2"/>
@@ -3787,239 +3802,241 @@
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="O8:S8"/>
     <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:T23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="J10:K10 R10:U10">
-    <cfRule type="expression" dxfId="91" priority="1157" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="1157" stopIfTrue="1">
       <formula>#REF! = 0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="1158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="1158" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="1159" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="1159" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="88" priority="1121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="1121" stopIfTrue="1">
       <formula>#REF! = 0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="1122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="1122" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="1123" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="1123" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="76" priority="1011" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="90" priority="1011" operator="lessThanOrEqual">
       <formula>0.33</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="1012" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="89" priority="1012" operator="greaterThan">
       <formula>0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R23:T23">
-    <cfRule type="expression" dxfId="74" priority="1010">
+    <cfRule type="expression" dxfId="88" priority="1010">
       <formula>$Q$23 &gt; 0.33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V10">
-    <cfRule type="expression" dxfId="72" priority="999" stopIfTrue="1">
-      <formula>#REF! = 0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="1000" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="1000" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="1001" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="1001" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="69" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="148" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="148" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3">
-    <cfRule type="cellIs" dxfId="67" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="83" priority="145" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="146" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="146" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="65" priority="144" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="144" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="64" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="143" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="63" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="142" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="62" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="141" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="61" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="140" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="60" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="139" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="expression" dxfId="59" priority="137">
+    <cfRule type="expression" dxfId="75" priority="137">
       <formula>P3 &lt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5">
-    <cfRule type="cellIs" dxfId="58" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="74" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="64" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="64" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="cellIs" dxfId="56" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="72" priority="61" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="62" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="62" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E6">
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="60" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="53" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="59" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="52" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="58" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="51" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="57" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="50" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="56" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="49" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="55" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="expression" dxfId="48" priority="53">
+    <cfRule type="expression" dxfId="64" priority="53">
       <formula>P5 &lt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="63" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="52" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="52" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="45" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="61" priority="49" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="50" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="50" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8">
-    <cfRule type="cellIs" dxfId="43" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="48" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="42" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="47" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="41" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="46" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="40" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="45" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="39" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="44" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="38" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="43" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="37" priority="41">
+    <cfRule type="expression" dxfId="53" priority="41">
       <formula>P7 &lt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:I14">
-    <cfRule type="cellIs" dxfId="3" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15:I15">
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15:D15">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/downloads/交易日誌範本-2019.xlsx
+++ b/downloads/交易日誌範本-2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Books\stock-trading-notes-support\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Google Drive\@Freelancing\股票投資\交易日誌\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F3C194-1FFA-4395-B5BE-BE7E8C9CF843}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8894D1-DF3E-43FB-B7F1-D2B3D8C7D98B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020" tabRatio="859" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="859" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="參數" sheetId="13" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2019'!#REF!</definedName>
     <definedName name="Tax">參數!$B$9</definedName>
-    <definedName name="口袋名單">'2019'!$B$17:$B$23</definedName>
+    <definedName name="口袋名單">'2019'!$B$21:$B$27</definedName>
     <definedName name="手續費率_元大">參數!$B$3</definedName>
     <definedName name="手續費率_新光">參數!$B$4</definedName>
     <definedName name="多空類型">參數!#REF!</definedName>
@@ -321,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{1F1DD219-131B-4D1C-A3BF-B2868A96DC20}">
+    <comment ref="B17" authorId="1" shapeId="0" xr:uid="{1F1DD219-131B-4D1C-A3BF-B2868A96DC20}">
       <text>
         <r>
           <rPr>
@@ -360,7 +360,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -671,27 +671,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>期初資本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>單次交易最高金額</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>期末資本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年報酬率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>獲利率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2330 台積電</t>
+    <t>資產成長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期初資產</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期末資產</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成長率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000 範例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,7 +948,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1147,6 +1151,19 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
@@ -1184,7 +1201,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1212,6 +1229,9 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1254,6 +1274,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1269,31 +1295,34 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="185" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="186" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
@@ -1320,29 +1349,137 @@
     <xf numFmtId="177" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="184" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1350,111 +1487,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="97">
+  <dxfs count="94">
     <dxf>
       <font>
         <b/>
@@ -1473,15 +1517,29 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
+        <color rgb="FF08A42D"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
@@ -1809,6 +1867,80 @@
       </font>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
@@ -1821,11 +1953,270 @@
         <extend val="0"/>
         <color indexed="17"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor indexed="45"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1867,87 +2258,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF08A42D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color indexed="9"/>
       </font>
       <fill>
@@ -2001,13 +2311,6 @@
       <fill>
         <patternFill>
           <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2043,268 +2346,6 @@
         <extend val="0"/>
         <color indexed="17"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF66FF66"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2703,141 +2744,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="17">
         <v>8.5499999999999997E-4</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="17">
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="17">
         <v>1E-3</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="17">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="15">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
@@ -2851,13 +2892,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:W32"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="22" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomRight" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2869,90 +2910,90 @@
     <col min="5" max="5" width="5.25" customWidth="1"/>
     <col min="6" max="6" width="11.75" customWidth="1"/>
     <col min="7" max="7" width="6.125" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="7.25" customWidth="1"/>
     <col min="9" max="9" width="9.625" customWidth="1"/>
     <col min="10" max="13" width="7.125" customWidth="1"/>
     <col min="14" max="14" width="15.75" customWidth="1"/>
     <col min="15" max="15" width="11.875" customWidth="1"/>
-    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="16" max="16" width="7.125" customWidth="1"/>
     <col min="17" max="17" width="9.625" customWidth="1"/>
     <col min="18" max="18" width="7.375" customWidth="1"/>
     <col min="19" max="19" width="7.625" customWidth="1"/>
     <col min="20" max="20" width="8.5" customWidth="1"/>
     <col min="21" max="21" width="12.375" customWidth="1"/>
-    <col min="22" max="22" width="9" customWidth="1"/>
+    <col min="22" max="22" width="10.25" customWidth="1"/>
     <col min="23" max="23" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="71" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="74" t="s">
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
     </row>
     <row r="2" spans="1:23" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="63"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="81"/>
       <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="23" t="s">
+      <c r="J2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="23" t="s">
+      <c r="L2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="23" t="s">
+      <c r="M2" s="26" t="s">
         <v>18</v>
       </c>
       <c r="N2" s="5" t="s">
@@ -2961,50 +3002,46 @@
       <c r="O2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="26" t="s">
         <v>12</v>
       </c>
       <c r="T2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" s="9" t="s">
+      <c r="V2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58">
-        <v>1</v>
-      </c>
-      <c r="B3" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="46" t="s">
+      <c r="A3" s="76">
+        <v>0</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="48">
+      <c r="D3" s="68">
         <f>IF(C3="新光",手續費率_新光,手續費率_元大)</f>
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="E3" s="50">
-        <v>1</v>
-      </c>
+      <c r="E3" s="70"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="28" t="s">
         <v>30</v>
       </c>
       <c r="H3" s="7"/>
@@ -3012,19 +3049,17 @@
         <f>E3*1000*H3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="9">
         <f>IF(I3&lt;=0, 0, IF(ROUNDUP(I3*D3, 0)&lt;20,20,ROUNDUP(I3*D3, 0)))</f>
         <v>0</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3" s="9">
         <f>IF(G3="空", IF(C3="新光", ROUND(I3*借券費率_新光,0), ROUND(I3*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="7">
-        <v>65.400000000000006</v>
-      </c>
+      <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="38">
+      <c r="N3" s="31">
         <f xml:space="preserve"> IF(AND(H3&gt;0, L3&gt;0),  (H3-L3) / (M3-H3), 0)</f>
         <v>0</v>
       </c>
@@ -3034,73 +3069,75 @@
         <f>E3*1000*P3</f>
         <v>0</v>
       </c>
-      <c r="R3" s="18">
+      <c r="R3" s="24">
         <f>IF(Q3&lt;=0, 0, IF(ROUNDUP(Q3*D3,0)&lt;20,20,ROUNDUP(Q3*D3, 0)))</f>
         <v>0</v>
       </c>
-      <c r="S3" s="17">
+      <c r="S3" s="25">
         <f ca="1">IF(AND(G3="多", VALUE(W3)=1),IF(C3="新光", ROUND(I3*借券費率_新光,0), ROUND(I3*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="12">
+      <c r="T3" s="13">
         <f>IF(G3="多", IF(Q3&lt;&gt;0,INT(Q3*Tax), 0), IF(I3&lt;&gt;0,INT(I3*Tax),0))</f>
         <v>0</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="16">
         <f>IF(Q3&lt;&gt;0, IF(G3="多", Q3-I3-J3-R3-S3-T3, I3-Q3-J3-K3-R3-T3), 0)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="10" t="str">
-        <f>IF(AND(Q3&lt;&gt;0, H3 &lt;&gt; 0), IF(G3="多", U3/I3, U3/Q3), "")</f>
-        <v/>
-      </c>
-      <c r="W3" s="11">
+      <c r="V3" s="11">
+        <f>IF(AND(Q3&lt;&gt;0, H3 &lt;&gt; 0), IF(G3="多", U3/I3, U3/Q3), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3" s="12">
         <f ca="1">IF(O3&gt;0,O3-F3+1,IF(F3&gt;0,TODAY()-F3+1,0))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="59"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="69"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
+    <row r="4" spans="1:23" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="77"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
     </row>
     <row r="5" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="58">
-        <v>2</v>
-      </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="76">
+        <v>1</v>
+      </c>
+      <c r="B5" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="48">
+      <c r="D5" s="68">
         <f>IF(C5="新光",手續費率_新光,手續費率_元大)</f>
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="59">
         <v>1</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="28" t="s">
         <v>30</v>
       </c>
       <c r="H5" s="7"/>
@@ -3108,11 +3145,11 @@
         <f>E5*1000*H5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="18">
         <f>IF(I5&lt;=0, 0, IF(ROUNDUP(I5*D5, 0)&lt;20,20,ROUNDUP(I5*D5, 0)))</f>
         <v>0</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="18">
         <f>IF(G5="空", IF(C5="新光", ROUND(I5*借券費率_新光,0), ROUND(I5*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
@@ -3120,7 +3157,7 @@
         <v>65.400000000000006</v>
       </c>
       <c r="M5" s="7"/>
-      <c r="N5" s="38">
+      <c r="N5" s="42">
         <f xml:space="preserve"> IF(AND(H5&gt;0, L5&gt;0),  (H5-L5) / (M5-H5), 0)</f>
         <v>0</v>
       </c>
@@ -3130,73 +3167,73 @@
         <f>E5*1000*P5</f>
         <v>0</v>
       </c>
-      <c r="R5" s="18">
+      <c r="R5" s="19">
         <f>IF(Q5&lt;=0, 0, IF(ROUNDUP(Q5*D5,0)&lt;20,20,ROUNDUP(Q5*D5, 0)))</f>
         <v>0</v>
       </c>
-      <c r="S5" s="17">
+      <c r="S5" s="18">
         <f ca="1">IF(AND(G5="多", VALUE(W5)=1),IF(C5="新光", ROUND(I5*借券費率_新光,0), ROUND(I5*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="12">
+      <c r="T5" s="13">
         <f>IF(G5="多", IF(Q5&lt;&gt;0,INT(Q5*Tax), 0), IF(I5&lt;&gt;0,INT(I5*Tax),0))</f>
         <v>0</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="16">
         <f>IF(Q5&lt;&gt;0, IF(G5="多", Q5-I5-J5-R5-S5-T5, I5-Q5-J5-K5-R5-T5), 0)</f>
         <v>0</v>
       </c>
-      <c r="V5" s="10" t="str">
+      <c r="V5" s="11" t="str">
         <f>IF(AND(Q5&lt;&gt;0, H5 &lt;&gt; 0), IF(G5="多", U5/I5, U5/Q5), "")</f>
         <v/>
       </c>
-      <c r="W5" s="11">
+      <c r="W5" s="12">
         <f ca="1">IF(O5&gt;0,O5-F5+1,IF(F5&gt;0,TODAY()-F5+1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="82"/>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="73"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
     </row>
     <row r="7" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58">
-        <v>3</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="46" t="s">
+      <c r="A7" s="76">
+        <v>2</v>
+      </c>
+      <c r="B7" s="78"/>
+      <c r="C7" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="68">
         <f>IF(C7="新光",手續費率_新光,手續費率_元大)</f>
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="59">
         <v>1</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="28" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="7"/>
@@ -3204,11 +3241,11 @@
         <f>E7*1000*H7</f>
         <v>0</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="18">
         <f>IF(I7&lt;=0, 0, IF(ROUNDUP(I7*D7, 0)&lt;20,20,ROUNDUP(I7*D7, 0)))</f>
         <v>0</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="18">
         <f>IF(G7="空", IF(C7="新光", ROUND(I7*借券費率_新光,0), ROUND(I7*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
@@ -3216,7 +3253,7 @@
         <v>65.400000000000006</v>
       </c>
       <c r="M7" s="7"/>
-      <c r="N7" s="38">
+      <c r="N7" s="42">
         <f xml:space="preserve"> IF(AND(H7&gt;0, L7&gt;0),  (H7-L7) / (M7-H7), 0)</f>
         <v>0</v>
       </c>
@@ -3226,132 +3263,153 @@
         <f>E7*1000*P7</f>
         <v>0</v>
       </c>
-      <c r="R7" s="18">
+      <c r="R7" s="19">
         <f>IF(Q7&lt;=0, 0, IF(ROUNDUP(Q7*D7,0)&lt;20,20,ROUNDUP(Q7*D7, 0)))</f>
         <v>0</v>
       </c>
-      <c r="S7" s="17">
+      <c r="S7" s="18">
         <f ca="1">IF(AND(G7="多", VALUE(W7)=1),IF(C7="新光", ROUND(I7*借券費率_新光,0), ROUND(I7*借券費率_元大,0)), 0)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="12">
+      <c r="T7" s="13">
         <f>IF(G7="多", IF(Q7&lt;&gt;0,INT(Q7*Tax), 0), IF(I7&lt;&gt;0,INT(I7*Tax),0))</f>
         <v>0</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="16">
         <f>IF(Q7&lt;&gt;0, IF(G7="多", Q7-I7-J7-R7-S7-T7, I7-Q7-J7-K7-R7-T7), 0)</f>
         <v>0</v>
       </c>
-      <c r="V7" s="10" t="str">
+      <c r="V7" s="11" t="str">
         <f>IF(AND(Q7&lt;&gt;0, H7 &lt;&gt; 0), IF(G7="多", U7/I7, U7/Q7), "")</f>
         <v/>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="12">
         <f ca="1">IF(O7&gt;0,O7-F7+1,IF(F7&gt;0,TODAY()-F7+1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="71"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="82"/>
-      <c r="V8" s="82"/>
-      <c r="W8" s="82"/>
-    </row>
-    <row r="9" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="87" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="84">
-        <f>SUM(I3:I9)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="84"/>
-      <c r="J10" s="85">
-        <f>SUM(J3:J9)</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="85">
-        <f>SUM(K3:K9)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="85">
-        <f>SUM(R3:R9)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="85">
-        <f ca="1">SUM(S3:S9)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="85">
-        <f>SUM(T3:T9)</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="85">
-        <f>SUM(U3:U9)</f>
-        <v>0</v>
-      </c>
-      <c r="V10" s="86">
-        <f>U10-H10</f>
-        <v>0</v>
-      </c>
-      <c r="W10" s="37"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="77"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="75"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+    </row>
+    <row r="9" spans="1:23" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="76">
+        <v>3</v>
+      </c>
+      <c r="B9" s="78"/>
+      <c r="C9" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="68">
+        <f>IF(C9="新光",手續費率_新光,手續費率_元大)</f>
+        <v>3.9899999999999999E-4</v>
+      </c>
+      <c r="E9" s="59">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8">
+        <f>E9*1000*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <f>IF(I9&lt;=0, 0, IF(ROUNDUP(I9*D9, 0)&lt;20,20,ROUNDUP(I9*D9, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <f>IF(G9="空", IF(C9="新光", ROUND(I9*借券費率_新光,0), ROUND(I9*借券費率_元大,0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9" s="42">
+        <f xml:space="preserve"> IF(AND(H9&gt;0, L9&gt;0),  (H9-L9) / (M9-H9), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="8">
+        <f>E9*1000*P9</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="19">
+        <f>IF(Q9&lt;=0, 0, IF(ROUNDUP(Q9*D9,0)&lt;20,20,ROUNDUP(Q9*D9, 0)))</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="18">
+        <f ca="1">IF(AND(G9="多", VALUE(W9)=1),IF(C9="新光", ROUND(I9*借券費率_新光,0), ROUND(I9*借券費率_元大,0)), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <f>IF(G9="多", IF(Q9&lt;&gt;0,INT(Q9*Tax), 0), IF(I9&lt;&gt;0,INT(I9*Tax),0))</f>
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <f>IF(Q9&lt;&gt;0, IF(G9="多", Q9-I9-J9-R9-S9-T9, I9-Q9-J9-K9-R9-T9), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="V9" s="11" t="str">
+        <f>IF(AND(Q9&lt;&gt;0, H9 &lt;&gt; 0), IF(G9="多", U9/I9, U9/Q9), "")</f>
+        <v/>
+      </c>
+      <c r="W9" s="12">
+        <f ca="1">IF(O9&gt;0,O9-F9+1,IF(F9&gt;0,TODAY()-F9+1,0))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="77"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+    </row>
+    <row r="11" spans="1:23" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -3375,281 +3433,301 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="80" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="39">
-        <f xml:space="preserve"> MAX(I2:I8)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:23" s="42" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="45" t="s">
+    <row r="12" spans="1:23" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="87">
+        <f>SUM(I5:I11)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="87"/>
+      <c r="J12" s="52">
+        <f>SUM(J5:J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="52">
+        <f>SUM(K5:K11)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="52">
+        <f>SUM(R5:R11)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="52">
+        <f ca="1">SUM(S5:S11)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="52">
+        <f>SUM(T5:T11)</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="52">
+        <f>SUM(U5:U11)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="53">
+        <f>IF(H12 &gt; 0, U12/H12, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="41"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="79">
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="43">
+        <f xml:space="preserve"> MAX(I2:I10)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:23" s="46" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="88">
         <v>163000</v>
       </c>
-      <c r="D13" s="79"/>
-    </row>
-    <row r="14" spans="1:23" s="42" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="45" t="s">
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+    </row>
+    <row r="17" spans="1:22" s="46" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
+      <c r="B17" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+    </row>
+    <row r="18" spans="1:22" s="46" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47"/>
+      <c r="B18" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-    </row>
-    <row r="15" spans="1:23" s="42" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="81" t="str">
-        <f>IF(C14&gt;0,(C14-C13)/C13,"")</f>
+      <c r="C18" s="88" t="str">
+        <f>IF(C17&gt;0,(C17-C16),"")</f>
         <v/>
       </c>
-      <c r="D15" s="81"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="F17" s="28" t="s">
+      <c r="D18" s="88"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+    </row>
+    <row r="19" spans="1:22" s="46" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47"/>
+      <c r="B19" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="91" t="str">
+        <f>IF(C17&gt;0,(C17-C16)/C16,"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="91"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="86"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="44"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="F21" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="N17" s="29" t="s">
+      <c r="N21" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="F18" s="26" t="s">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="44"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="F22" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="N18" t="s">
+      <c r="N22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="F19" s="26" t="s">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="F23" s="29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="N20" s="30" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="N24" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="52" t="s">
+      <c r="O24" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="31">
+      <c r="P24" s="93"/>
+      <c r="Q24" s="35">
         <v>33.200000000000003</v>
       </c>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="53" t="s">
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="34">
+      <c r="P25" s="94"/>
+      <c r="Q25" s="38">
         <v>32.700000000000003</v>
       </c>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="27"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="53" t="s">
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="N26" s="37"/>
+      <c r="O26" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="34">
+      <c r="P26" s="94"/>
+      <c r="Q26" s="38">
         <v>35</v>
       </c>
-      <c r="R22" s="33"/>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="54" t="s">
+      <c r="R26" s="37"/>
+      <c r="S26" s="37"/>
+      <c r="T26" s="37"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="30"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="36">
-        <f>IF(AND(Q20&gt;0, Q21 &gt; 0, Q22 &gt; 0),(Q20-Q21) / (Q22-Q20), 0)</f>
+      <c r="P27" s="95"/>
+      <c r="Q27" s="40">
+        <f>IF(AND(Q24&gt;0, Q25 &gt; 0, Q26 &gt; 0),(Q24-Q25) / (Q26-Q24), 0)</f>
         <v>0.27777777777777823</v>
       </c>
-      <c r="R23" s="55" t="str">
-        <f xml:space="preserve"> IF(Q23 = 0, "在上方輸入試算價格", IF(Q23 &gt; 0.33,"不可建立部位!", "可以建立部位"))</f>
+      <c r="R27" s="96" t="str">
+        <f xml:space="preserve"> IF(Q27 = 0, "在上方輸入試算價格", IF(Q27 &gt; 0.33,"不可建立部位!", "可以建立部位"))</f>
         <v>可以建立部位</v>
       </c>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
@@ -3771,280 +3849,445 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="F6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="60">
+    <mergeCell ref="F10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="R27:T27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="O4:S4"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="F1:M1"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="A5:A6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="F1:M1"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="T8:W8"/>
     <mergeCell ref="F8:N8"/>
     <mergeCell ref="O8:S8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:T23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="J10:K10 R10:U10">
-    <cfRule type="expression" dxfId="96" priority="1157" stopIfTrue="1">
+  <conditionalFormatting sqref="J12:K12 R12:U12">
+    <cfRule type="expression" dxfId="93" priority="1159" stopIfTrue="1">
       <formula>#REF! = 0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="1158" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="1160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="1159" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="1161" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="expression" dxfId="93" priority="1121" stopIfTrue="1">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="expression" dxfId="90" priority="1123" stopIfTrue="1">
       <formula>#REF! = 0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="1122" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="89" priority="1124" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="1123" stopIfTrue="1" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q23">
-    <cfRule type="cellIs" dxfId="90" priority="1011" operator="lessThanOrEqual">
-      <formula>0.33</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="1012" operator="greaterThan">
-      <formula>0.33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R23:T23">
-    <cfRule type="expression" dxfId="88" priority="1010">
-      <formula>$Q$23 &gt; 0.33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V10">
-    <cfRule type="cellIs" dxfId="87" priority="1000" stopIfTrue="1" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="1001" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="88" priority="1125" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U3">
-    <cfRule type="cellIs" dxfId="85" priority="147" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="87" priority="1120" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="148" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="86" priority="1121" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3">
-    <cfRule type="cellIs" dxfId="83" priority="145" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="85" priority="1118" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="146" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="84" priority="1119" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4">
-    <cfRule type="cellIs" dxfId="81" priority="144" operator="greaterThan">
-      <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="80" priority="143" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="1112" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="79" priority="142" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="1111" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="78" priority="141" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="1110" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="77" priority="140" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="1109" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="76" priority="139" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="1108" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B4">
-    <cfRule type="expression" dxfId="75" priority="137">
-      <formula>P3 &lt; 1</formula>
+  <conditionalFormatting sqref="Q27">
+    <cfRule type="cellIs" dxfId="78" priority="1013" operator="lessThanOrEqual">
+      <formula>0.33</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="1014" operator="greaterThan">
+      <formula>0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:T27">
+    <cfRule type="expression" dxfId="76" priority="1012">
+      <formula>$Q$27 &gt; 0.33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="cellIs" dxfId="75" priority="1005" operator="greaterThan">
+      <formula>0.3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12">
+    <cfRule type="expression" dxfId="74" priority="1001" stopIfTrue="1">
+      <formula>#REF! = 0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="1002" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="1003" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U5">
-    <cfRule type="cellIs" dxfId="74" priority="63" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="71" priority="149" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="64" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="150" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V5">
-    <cfRule type="cellIs" dxfId="72" priority="61" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="69" priority="147" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="62" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="148" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E6">
-    <cfRule type="cellIs" dxfId="70" priority="60" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="146" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="69" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="145" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="68" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="144" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="67" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="143" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="66" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="142" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="65" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="141" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="expression" dxfId="64" priority="53">
+    <cfRule type="expression" dxfId="61" priority="139">
       <formula>P5 &lt; 1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U7">
-    <cfRule type="cellIs" dxfId="63" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="60" priority="65" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="52" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="66" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="cellIs" dxfId="61" priority="49" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="63" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="50" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="64" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:E8">
-    <cfRule type="cellIs" dxfId="59" priority="48" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="62" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="58" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="61" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="57" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="60" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="56" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="59" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="55" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="58" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="54" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="57" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="53" priority="41">
+    <cfRule type="expression" dxfId="50" priority="55">
       <formula>P7 &lt; 1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14:I14">
-    <cfRule type="cellIs" dxfId="52" priority="4" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="U9">
+    <cfRule type="cellIs" dxfId="49" priority="53" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="54" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9">
+    <cfRule type="cellIs" dxfId="47" priority="51" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="52" stopIfTrue="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9:E10">
+    <cfRule type="cellIs" dxfId="45" priority="50" operator="greaterThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="44" priority="49" stopIfTrue="1" operator="equal">
+      <formula>"空"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="43" priority="48" stopIfTrue="1" operator="equal">
+      <formula>"空"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="42" priority="47" stopIfTrue="1" operator="equal">
+      <formula>"空"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="41" priority="46" stopIfTrue="1" operator="equal">
+      <formula>"空"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="cellIs" dxfId="40" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"空"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B10">
+    <cfRule type="expression" dxfId="39" priority="43">
+      <formula>P9 &lt; 1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17:I18">
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H15:I15">
-    <cfRule type="cellIs" dxfId="51" priority="3" stopIfTrue="1" operator="greaterThanOrEqual">
+  <conditionalFormatting sqref="H19:I19">
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C15:D15">
-    <cfRule type="cellIs" dxfId="50" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="C19:D19">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G5 G7" xr:uid="{00000000-0002-0000-0100-000001000000}">
+  <conditionalFormatting sqref="C18:D18">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B4" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>口袋名單</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3 G5 G7 G9" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>多空類型</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C8" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>證券行</formula1>
     </dataValidation>
   </dataValidations>
@@ -4056,26 +4299,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="138" id="{CAF1C38A-FDF9-4F82-BA5A-35C19D4EA579}">
-            <x14:iconSet custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num" gte="0">
-                <xm:f>0.23</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0.33</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
-              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>N3</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="54" id="{C530D853-A151-4EE4-9AA3-F98131D4CA00}">
+          <x14:cfRule type="iconSet" priority="140" id="{CAF1C38A-FDF9-4F82-BA5A-35C19D4EA579}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4094,7 +4318,7 @@
           <xm:sqref>N5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="42" id="{EB10B8BD-DB99-429C-B435-27DAF09C289B}">
+          <x14:cfRule type="iconSet" priority="56" id="{C530D853-A151-4EE4-9AA3-F98131D4CA00}">
             <x14:iconSet custom="1">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4112,6 +4336,25 @@
           </x14:cfRule>
           <xm:sqref>N7</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="44" id="{EB10B8BD-DB99-429C-B435-27DAF09C289B}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num" gte="0">
+                <xm:f>0.23</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>0.33</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>N9</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/downloads/交易日誌範本-2019.xlsx
+++ b/downloads/交易日誌範本-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Google Drive\@Freelancing\股票投資\交易日誌\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2341CC7-865C-4E9A-A259-3851590D612C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720C38A2-18F5-405A-9298-F84434BDBA35}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8988" tabRatio="859" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -660,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -682,9 +682,6 @@
     <xf numFmtId="177" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -724,9 +721,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -775,12 +769,54 @@
     <xf numFmtId="183" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -793,29 +829,35 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -823,12 +865,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -836,55 +872,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="156">
+  <dxfs count="55">
     <dxf>
       <fill>
         <patternFill>
@@ -898,113 +892,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1039,6 +926,106 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="16"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="17"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
@@ -1144,950 +1131,6 @@
         <extend val="0"/>
         <color indexed="17"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF08A42D"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="9"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="16"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="17"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2700,106 +1743,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
     </row>
     <row r="4" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="15">
+      <c r="A5" s="19"/>
+      <c r="B5" s="14">
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="13">
+      <c r="A7" s="19"/>
+      <c r="B7" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2819,7 +1862,7 @@
       <pane xSplit="20" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6:L6"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -2847,111 +1890,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64" t="s">
+      <c r="B1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="71" t="s">
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="67" t="s">
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
     </row>
     <row r="2" spans="1:21" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="60"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="66"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="63"/>
       <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="K2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="20" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="22" t="s">
+      <c r="N2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="22" t="s">
+      <c r="O2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="22" t="s">
+      <c r="P2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="Q2" s="22" t="s">
+      <c r="Q2" s="20" t="s">
         <v>12</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
-        <v>0</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="44">
+      <c r="A3" s="52">
+        <v>0</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="50">
         <f>手續費率</f>
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="D3" s="63"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="22" t="s">
         <v>22</v>
       </c>
       <c r="G3" s="5"/>
@@ -2959,11 +2002,11 @@
         <f>D3*1000*G3</f>
         <v>0</v>
       </c>
-      <c r="I3" s="7">
-        <f>IF(H3&lt;=0, 0, IF(ROUNDUP(H3*C3, 0)&lt;20,20,ROUNDUP(H3*C3, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="I3" s="15">
+        <f>IF(H3&lt;=0, 0, IF(ROUNDUP(H3*C3, 0)&lt;20,20*D3,ROUNDUP(H3*C3, 0)*D3))</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="15">
         <f>IF(F3="空", ROUND(H3*借券費率,0), 0)</f>
         <v>0</v>
       </c>
@@ -2975,70 +2018,70 @@
         <f>D3*1000*N3</f>
         <v>0</v>
       </c>
-      <c r="P3" s="21">
-        <f>IF(O3&lt;=0, 0, IF(ROUNDUP(O3*C3,0)&lt;20,20,ROUNDUP(O3*C3, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16">
+      <c r="P3" s="16">
+        <f>IF(O3&lt;=0, 0, IF(ROUNDUP(O3*C3,0)&lt;20,20*D3,ROUNDUP(O3*C3, 0)*D3))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15">
         <f ca="1">IF(AND(F3="多", M3 &gt; 0, VALUE(U3)=1), ROUND(H3*借券費率,0), 0)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <f>IF(F3="多", IF(O3&lt;&gt;0,INT(O3*Tax), 0), IF(H3&lt;&gt;0,INT(H3*Tax),0))</f>
         <v>0</v>
       </c>
-      <c r="S3" s="14">
+      <c r="S3" s="13">
         <f>IF(O3&lt;&gt;0, IF(F3="多", O3-H3-I3-P3-Q3-R3, H3-O3-I3-J3-P3-R3), 0)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="8">
         <f>IF(AND(O3&lt;&gt;0, G3 &lt;&gt; 0), IF(F3="多", S3/H3, S3/O3), 0)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="9">
         <f ca="1">IF(M3&gt;0,M3-E3+1,IF(E3&gt;0,TODAY()-E3+1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
     </row>
     <row r="5" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
+      <c r="A5" s="52">
         <v>1</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="50">
         <f>手續費率</f>
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="36">
         <v>1</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="22" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="5"/>
@@ -3046,11 +2089,11 @@
         <f>D5*1000*G5</f>
         <v>0</v>
       </c>
-      <c r="I5" s="16">
-        <f>IF(H5&lt;=0, 0, IF(ROUNDUP(H5*C5, 0)&lt;20,20,ROUNDUP(H5*C5, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
+      <c r="I5" s="15">
+        <f>IF(H5&lt;=0, 0, IF(ROUNDUP(H5*C5, 0)&lt;20,20*D5,ROUNDUP(H5*C5, 0)*D5))</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
         <f>IF(F5="空", ROUND(H5*借券費率,0), 0)</f>
         <v>0</v>
       </c>
@@ -3062,68 +2105,68 @@
         <f>D5*1000*N5</f>
         <v>0</v>
       </c>
-      <c r="P5" s="17">
-        <f>IF(O5&lt;=0, 0, IF(ROUNDUP(O5*C5,0)&lt;20,20,ROUNDUP(O5*C5, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16">
+      <c r="P5" s="16">
+        <f>IF(O5&lt;=0, 0, IF(ROUNDUP(O5*C5,0)&lt;20,20*D5,ROUNDUP(O5*C5, 0)*D5))</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="15">
         <f ca="1">IF(AND(F5="多", M5 &gt; 0, VALUE(U5)=1), ROUND(H5*借券費率,0), 0)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <f>IF(F5="多", IF(O5&lt;&gt;0,INT(O5*Tax), 0), IF(H5&lt;&gt;0,INT(H5*Tax),0))</f>
         <v>0</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="13">
         <f>IF(O5&lt;&gt;0, IF(F5="多", O5-H5-I5-P5-Q5-R5, H5-O5-I5-J5-P5-R5), 0)</f>
         <v>0</v>
       </c>
-      <c r="T5" s="9" t="str">
+      <c r="T5" s="8" t="str">
         <f>IF(AND(O5&lt;&gt;0, G5 &lt;&gt; 0), IF(F5="多", S5/H5, S5/O5), "")</f>
         <v/>
       </c>
-      <c r="U5" s="10">
+      <c r="U5" s="9">
         <f ca="1">IF(M5&gt;0,M5-E5+1,IF(E5&gt;0,TODAY()-E5+1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="39"/>
-      <c r="T6" s="39"/>
-      <c r="U6" s="39"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="47"/>
+      <c r="T6" s="47"/>
+      <c r="U6" s="47"/>
     </row>
     <row r="7" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
+      <c r="A7" s="52">
         <v>2</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="44">
+      <c r="B7" s="54"/>
+      <c r="C7" s="50">
         <f>手續費率</f>
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="36">
         <v>1</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="22" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="5"/>
@@ -3131,11 +2174,11 @@
         <f>D7*1000*G7</f>
         <v>0</v>
       </c>
-      <c r="I7" s="16">
-        <f>IF(H7&lt;=0, 0, IF(ROUNDUP(H7*C7, 0)&lt;20,20,ROUNDUP(H7*C7, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
+      <c r="I7" s="15">
+        <f>IF(H7&lt;=0, 0, IF(ROUNDUP(H7*C7, 0)&lt;20,20*D7,ROUNDUP(H7*C7, 0)*D7))</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="15">
         <f>IF(F7="空", ROUND(H7*借券費率,0), 0)</f>
         <v>0</v>
       </c>
@@ -3147,68 +2190,68 @@
         <f>D7*1000*N7</f>
         <v>0</v>
       </c>
-      <c r="P7" s="17">
-        <f>IF(O7&lt;=0, 0, IF(ROUNDUP(O7*C7,0)&lt;20,20,ROUNDUP(O7*C7, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
+      <c r="P7" s="16">
+        <f>IF(O7&lt;=0, 0, IF(ROUNDUP(O7*C7,0)&lt;20,20*D7,ROUNDUP(O7*C7, 0)*D7))</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15">
         <f ca="1">IF(AND(F7="多", M7 &gt; 0, VALUE(U7)=1), ROUND(H7*借券費率,0), 0)</f>
         <v>0</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="10">
         <f>IF(F7="多", IF(O7&lt;&gt;0,INT(O7*Tax), 0), IF(H7&lt;&gt;0,INT(H7*Tax),0))</f>
         <v>0</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="13">
         <f>IF(O7&lt;&gt;0, IF(F7="多", O7-H7-I7-P7-Q7-R7, H7-O7-I7-J7-P7-R7), 0)</f>
         <v>0</v>
       </c>
-      <c r="T7" s="9" t="str">
+      <c r="T7" s="8" t="str">
         <f>IF(AND(O7&lt;&gt;0, G7 &lt;&gt; 0), IF(F7="多", S7/H7, S7/O7), "")</f>
         <v/>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="9">
         <f ca="1">IF(M7&gt;0,M7-E7+1,IF(E7&gt;0,TODAY()-E7+1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="41"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
-      <c r="U8" s="39"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="40"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="47"/>
+      <c r="T8" s="47"/>
+      <c r="U8" s="47"/>
     </row>
     <row r="9" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40">
+      <c r="A9" s="52">
         <v>3</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="44">
+      <c r="B9" s="54"/>
+      <c r="C9" s="50">
         <f>手續費率</f>
         <v>3.9899999999999999E-4</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="36">
         <v>1</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="5"/>
@@ -3216,11 +2259,11 @@
         <f>D9*1000*G9</f>
         <v>0</v>
       </c>
-      <c r="I9" s="16">
-        <f>IF(H9&lt;=0, 0, IF(ROUNDUP(H9*C9, 0)&lt;20,20,ROUNDUP(H9*C9, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="I9" s="15">
+        <f>IF(H9&lt;=0, 0, IF(ROUNDUP(H9*C9, 0)&lt;20,20*D9,ROUNDUP(H9*C9, 0)*D9))</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="15">
         <f>IF(F9="空", ROUND(H9*借券費率,0), 0)</f>
         <v>0</v>
       </c>
@@ -3232,53 +2275,53 @@
         <f>D9*1000*N9</f>
         <v>0</v>
       </c>
-      <c r="P9" s="17">
-        <f>IF(O9&lt;=0, 0, IF(ROUNDUP(O9*C9,0)&lt;20,20,ROUNDUP(O9*C9, 0)))</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
+      <c r="P9" s="16">
+        <f>IF(O9&lt;=0, 0, IF(ROUNDUP(O9*C9,0)&lt;20,20*D9,ROUNDUP(O9*C9, 0)*D9))</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15">
         <f ca="1">IF(AND(F9="多", M9 &gt; 0, VALUE(U9)=1), ROUND(H9*借券費率,0), 0)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="10">
         <f>IF(F9="多", IF(O9&lt;&gt;0,INT(O9*Tax), 0), IF(H9&lt;&gt;0,INT(H9*Tax),0))</f>
         <v>0</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="13">
         <f>IF(O9&lt;&gt;0, IF(F9="多", O9-H9-I9-P9-Q9-R9, H9-O9-I9-J9-P9-R9), 0)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="9" t="str">
+      <c r="T9" s="8" t="str">
         <f>IF(AND(O9&lt;&gt;0, G9 &lt;&gt; 0), IF(F9="多", S9/H9, S9/O9), "")</f>
         <v/>
       </c>
-      <c r="U9" s="10">
+      <c r="U9" s="9">
         <f ca="1">IF(M9&gt;0,M9-E9+1,IF(E9&gt;0,TODAY()-E9+1,0))</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="50"/>
-      <c r="Q10" s="51"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
     </row>
     <row r="11" spans="1:21" ht="15.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
@@ -3303,53 +2346,53 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:21" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="55">
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="65">
         <f>SUM(H5:H11)</f>
         <v>0</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="33">
+      <c r="H12" s="65"/>
+      <c r="I12" s="31">
         <f>SUM(I5:I11)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="31">
         <f>SUM(J5:J11)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="33">
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="31">
         <f>SUM(P5:P11)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="31">
         <f ca="1">SUM(Q5:Q11)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="33">
+      <c r="R12" s="31">
         <f>SUM(R5:R11)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="33">
+      <c r="S12" s="31">
         <f>SUM(S5:S11)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="34">
+      <c r="T12" s="32">
         <f>IF(G12 &gt; 0, S12/G12, 0)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="25"/>
+      <c r="U12" s="23"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
@@ -3378,12 +2421,12 @@
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="26">
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="24">
         <f xml:space="preserve"> MAX(H2:H10)</f>
         <v>0</v>
       </c>
@@ -3405,10 +2448,10 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="26"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="24"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -3422,53 +2465,53 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
     </row>
-    <row r="16" spans="1:21" s="27" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="31" t="s">
+    <row r="16" spans="1:21" s="25" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-    </row>
-    <row r="17" spans="1:20" s="27" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28"/>
-      <c r="B17" s="31" t="s">
+      <c r="C16" s="66"/>
+      <c r="D16" s="67"/>
+    </row>
+    <row r="17" spans="1:20" s="25" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="26"/>
+      <c r="B17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-    </row>
-    <row r="18" spans="1:20" s="27" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="28"/>
-      <c r="B18" s="31" t="s">
+      <c r="C17" s="66"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="1:20" s="25" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:20" s="27" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="31" t="s">
+      <c r="C18" s="66"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="1:20" s="25" customFormat="1" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="34"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -3670,37 +2713,7 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E10:L10"/>
-    <mergeCell ref="M10:Q10"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="E1:L1"/>
-    <mergeCell ref="R4:U4"/>
-    <mergeCell ref="R6:U6"/>
-    <mergeCell ref="R8:U8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:Q8"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E4:L4"/>
-    <mergeCell ref="M4:Q4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="R10:U10"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
@@ -3711,241 +2724,271 @@
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="R10:U10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="E1:L1"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="R6:U6"/>
+    <mergeCell ref="R8:U8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:Q8"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="E4:L4"/>
+    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E10:L10"/>
+    <mergeCell ref="M10:Q10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I12:J12 P12:S12">
-    <cfRule type="expression" dxfId="155" priority="1172" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="1172" stopIfTrue="1">
       <formula>#REF! = 0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="1173" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="53" priority="1173" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="1174" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="1174" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="expression" dxfId="152" priority="1136" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="1136" stopIfTrue="1">
       <formula>#REF! = 0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="1137" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="50" priority="1137" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="1138" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="1138" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3">
-    <cfRule type="cellIs" dxfId="149" priority="1133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="48" priority="1133" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="1134" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="1134" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3">
-    <cfRule type="cellIs" dxfId="147" priority="1131" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="46" priority="1131" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="1132" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="1132" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="145" priority="1125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1125" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="144" priority="1124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1124" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="143" priority="1123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1123" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="142" priority="1122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1122" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="141" priority="1121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="1121" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T12">
-    <cfRule type="expression" dxfId="140" priority="1014" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="1014" stopIfTrue="1">
       <formula>#REF! = 0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="1015" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="1015" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="138" priority="1016" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="1016" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S5">
-    <cfRule type="cellIs" dxfId="137" priority="162" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="162" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="163" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="163" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5">
-    <cfRule type="cellIs" dxfId="135" priority="160" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="160" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="134" priority="161" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="161" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="cellIs" dxfId="133" priority="159" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="159" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="132" priority="158" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="158" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="131" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="157" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="130" priority="156" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="156" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="129" priority="155" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="155" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="128" priority="154" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="154" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S7">
-    <cfRule type="cellIs" dxfId="126" priority="78" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="26" priority="78" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="79" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="79" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
-    <cfRule type="cellIs" dxfId="124" priority="76" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="76" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="77" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="77" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D8">
-    <cfRule type="cellIs" dxfId="122" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="75" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="121" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="74" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="120" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="73" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="119" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="72" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="118" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="71" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="117" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="70" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:B8">
-    <cfRule type="expression" dxfId="101" priority="68">
+    <cfRule type="expression" dxfId="16" priority="68">
       <formula>AND(H7 &gt; 0, N7 &lt; 1)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S9">
-    <cfRule type="cellIs" dxfId="116" priority="66" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="66" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="67" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="67" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T9">
-    <cfRule type="cellIs" dxfId="114" priority="64" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="13" priority="64" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="65" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="65" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:D10">
-    <cfRule type="cellIs" dxfId="112" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="63" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="111" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="62" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="110" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="61" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="109" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="60" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="108" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="59" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="107" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="58" stopIfTrue="1" operator="equal">
       <formula>"空"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G17:H18">
-    <cfRule type="cellIs" dxfId="105" priority="19" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="19" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:H19">
-    <cfRule type="cellIs" dxfId="104" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="18" stopIfTrue="1" operator="greaterThanOrEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C19">
-    <cfRule type="cellIs" dxfId="103" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
